--- a/data_LP.xlsx
+++ b/data_LP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/says_dtu_dk/Documents/Dokumenter/drosh/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{6B6B201C-FF0D-4005-9465-45238400CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9346793-8C00-4C41-A61D-620BA30F277C}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{6B6B201C-FF0D-4005-9465-45238400CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E505AB3-F0BB-4B90-8E5F-F4FA89279541}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTIMAL DIET" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1651,7 @@
         <v>120</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>16.8</v>
@@ -1698,7 +1698,7 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>9.1</v>
@@ -1745,7 +1745,7 @@
         <v>120</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>10</v>
